--- a/更新记录.xlsx
+++ b/更新记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,26 +34,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>取消评论区域的软删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.13.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实现用户删除评论及其子孙后台评论，实现管理员强制删除评论（递归）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增comment字段p_mid;新增回复评论功能写入p_mid,实现博主随意删除评论；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>comment递归查询；comement连表查询；实现查询某个动态或者话题的所有评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.13.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实现话题的分页功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,39 +70,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>删除管理员发布话题的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示该话题下的所有评论及回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改系统通知查询接口；实现查看后删除’您有一条新评论‘提醒new_alerts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改系统通知——发给所有人；实现系统通知——‘您有一条新评论’new_alerts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在评论中新增‘您有一条新评论’通知；在回复中新增提醒功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.13；1.13.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除管理员发布话题的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增动态的‘动态’的分页功能；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示该动态下的多张图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示该话题下的所有评论及回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示该话题下的多张图片；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示该动态或话题下的所有评论及回复query_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改系统通知查询接口；实现查看后删除’您有一条新评论‘提醒new_alerts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改系统通知——发给所有人；实现系统通知——‘您有一条新评论’new_alerts</t>
+    <t>配置本地共享服务器：www.yixitongda2.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现管理员强制删除评论（递归）pun_comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增动态的‘动态’的分页功能；增加page参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成配置本地共享服务器：www.yixitongda2.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现用户删除评论及其子孙后台评论；实现管理员强制删除评论（递归）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment递归查询；comement连表查询；实现查询某个动态或者话题的所有评论query_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消评论区域的软删除，实现真删除；修改评论功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除动态或话题下的所有简单评论，只显示动态信息，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增传入当前查询人的$act_mem_id参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给所有请求加上当前用户id的参数$act_mem_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写话题详情页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,11 +154,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在评论中新增‘您有一条新评论’通知；在回复中新增提醒功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.13；1.13.1</t>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线定点活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改正数据库topic、dynamic数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改topic列表，修改话题详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改‘如果官方修改话题就变成官方发送的话题’：修改topic数据表admin_id改为lev_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复‘动态首页列表（管理员）’不兼容php7.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复‘后台welcome页’不兼容php7.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改‘健康达人’不兼容php7.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现管理员删除图片，删除动态，同时删除其下的评论（真删除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现管理员删除话题图片，删除话题，同时删除其下的评论（真删除）dy_topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现用户删除动态，同时删除其下的图片、评论（真删除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现用户删除话题，同时删除其下的图片、评论（真删除）dy_topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复管理员后台删除话题、动态报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台‘发现’首页做轮播图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深大活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复活动商品编辑报错的问题输入数量5变1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -574,21 +678,21 @@
     <col min="4" max="4" width="81.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="9">
         <v>43228.800000000003</v>
       </c>
@@ -596,125 +700,134 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="9">
         <v>43229</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="9">
         <v>43229</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9">
-        <v>43230</v>
+        <v>43229</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="10">
-        <v>43231</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="9">
+        <v>43230</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="10">
         <v>43231</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="10">
+        <v>43231</v>
+      </c>
+      <c r="B8" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="10">
-        <v>43232</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4.2</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="10">
+        <v>43232</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4.2</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="10"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="10">
+        <v>43235</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="10">
         <v>43235</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="10">
         <v>43235</v>
       </c>
@@ -722,187 +835,293 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="10">
         <v>43235</v>
       </c>
-      <c r="B13" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="10">
         <v>43235</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="10">
-        <v>43235</v>
+        <v>43237</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="10"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="10">
+        <v>43235</v>
+      </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D16" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="10">
+        <v>43237</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
       <c r="D17" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="10">
+        <v>43241</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4.2</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="10">
+        <v>43241</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="10">
+        <v>43241</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="10">
+        <v>43242</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="10"/>
+      <c r="A22" s="10">
+        <v>43243</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="10"/>
+      <c r="A23" s="10">
+        <v>43243</v>
+      </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="10">
+        <v>43243</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="10"/>
+      <c r="A25" s="10">
+        <v>43244</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="10"/>
+      <c r="A26" s="10">
+        <v>43245</v>
+      </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="10"/>
+      <c r="A27" s="10">
+        <v>43246</v>
+      </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="10"/>
+      <c r="A28" s="10">
+        <v>43248</v>
+      </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="10"/>
+      <c r="A29" s="10">
+        <v>43248</v>
+      </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="10"/>
+      <c r="A30" s="10">
+        <v>43248</v>
+      </c>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="6"/>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="10"/>
@@ -915,6 +1134,18 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/更新记录.xlsx
+++ b/更新记录.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="更新" sheetId="1" r:id="rId1"/>
+    <sheet name="1.0新增" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,7 +234,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>新建act_one数据表，并编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析业务逻辑，设计表结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成报名接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端午活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户协议接口及用户协议html页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐私协议接口及隐私协议html页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增版本验证接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按类删除优惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改删除单一优惠券的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按商家删除优惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有图片的上传路径头像、优惠券、动态、话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有图片的上传方法头像、优惠券、动态、话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除优惠券无限效期规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化安卓下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成优惠券图片删除功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增优惠券排序字段（order_by）,新增act_one_flag表中的排序字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增优惠券名称字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装dingo/api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建坐标仓库数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建省市区表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成坐标仓库的自动生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构优惠券类、优惠券2大模块（数据库设计、模型、控制器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装注册jwt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1058,7 +1162,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="10"/>
+      <c r="A31" s="10">
+        <v>43256</v>
+      </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
         <v>8</v>
@@ -1068,85 +1174,1702 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="10"/>
+      <c r="A32" s="10">
+        <v>43266</v>
+      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="10"/>
+      <c r="A33" s="10">
+        <v>43270</v>
+      </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="10"/>
+      <c r="A34" s="10">
+        <v>43271</v>
+      </c>
       <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D34" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="10"/>
+      <c r="A35" s="10">
+        <v>43272</v>
+      </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="10"/>
+      <c r="A36" s="10">
+        <v>43273</v>
+      </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D36" s="6" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="10"/>
+      <c r="A37" s="10">
+        <v>43273</v>
+      </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="6"/>
+      <c r="C38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="10"/>
+      <c r="A39" s="10">
+        <v>43283</v>
+      </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="6"/>
+      <c r="C39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="10"/>
+      <c r="A40" s="10">
+        <v>43283</v>
+      </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="6"/>
+      <c r="C40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="6"/>
-    </row>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="10"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="10"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="10"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="10"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="10"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="10">
+        <v>43285</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="10"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="10"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="10">
+        <v>43292</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="10"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="10"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="10"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="10"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="10"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="10"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="10"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="10"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="10"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="10"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="10"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="10"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="10"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="10"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="10"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="10"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="10"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="10"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="10"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="10"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="10"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="10"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="10"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="10"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="10"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="10"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="10"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="10"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="10"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="10"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="10"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="10"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="10"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="10"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="10"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="10"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A90" s="10"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A91" s="10"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="10"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A93" s="10"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A94" s="10"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A95" s="10"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A96" s="10"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A97" s="10"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A98" s="10"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A99" s="10"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A100" s="10"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A101" s="10"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A102" s="10"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A103" s="10"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A104" s="10"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A105" s="10"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A106" s="10"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A107" s="10"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A108" s="10"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A109" s="10"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A110" s="10"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A111" s="10"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A112" s="10"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A113" s="10"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A114" s="10"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A115" s="10"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A116" s="10"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A117" s="10"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A118" s="10"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A119" s="10"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A120" s="10"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A121" s="10"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A122" s="10"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A123" s="10"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A124" s="10"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A125" s="10"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A126" s="10"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A127" s="10"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A128" s="10"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A129" s="10"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A130" s="10"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A131" s="10"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A132" s="10"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A133" s="10"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A134" s="10"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A135" s="10"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A136" s="10"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A137" s="10"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A138" s="10"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A139" s="10"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A140" s="10"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A141" s="10"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A142" s="10"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A143" s="10"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A144" s="10"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A145" s="10"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A146" s="10"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A147" s="10"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A148" s="10"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A149" s="10"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A150" s="10"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A151" s="10"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A152" s="10"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A153" s="10"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A154" s="10"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A155" s="10"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A156" s="10"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A157" s="10"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A158" s="10"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A159" s="10"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A160" s="10"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A161" s="10"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A162" s="10"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A163" s="10"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="6"/>
+    </row>
+    <row r="164" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A164" s="10"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="6"/>
+    </row>
+    <row r="165" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A165" s="10"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A166" s="10"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="6"/>
+    </row>
+    <row r="167" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A167" s="10"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="6"/>
+    </row>
+    <row r="168" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A168" s="10"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="6"/>
+    </row>
+    <row r="169" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A169" s="10"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="6"/>
+    </row>
+    <row r="170" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A170" s="10"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="6"/>
+    </row>
+    <row r="171" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A171" s="10"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A172" s="10"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="6"/>
+    </row>
+    <row r="173" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A173" s="10"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="6"/>
+    </row>
+    <row r="174" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A174" s="10"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="6"/>
+    </row>
+    <row r="175" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A175" s="10"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A176" s="10"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="6"/>
+    </row>
+    <row r="177" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A177" s="10"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="10"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A179" s="10"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A180" s="10"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="6"/>
+    </row>
+    <row r="181" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A181" s="10"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A182" s="10"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="6"/>
+    </row>
+    <row r="183" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A183" s="10"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="6"/>
+    </row>
+    <row r="184" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A184" s="10"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="6"/>
+    </row>
+    <row r="185" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A185" s="10"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="6"/>
+    </row>
+    <row r="186" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A186" s="10"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="6"/>
+    </row>
+    <row r="187" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A187" s="10"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="6"/>
+    </row>
+    <row r="188" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A188" s="10"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="6"/>
+    </row>
+    <row r="189" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A189" s="10"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="6"/>
+    </row>
+    <row r="190" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A190" s="10"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="6"/>
+    </row>
+    <row r="191" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A191" s="10"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="6"/>
+    </row>
+    <row r="192" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A192" s="10"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="6"/>
+    </row>
+    <row r="193" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A193" s="10"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="6"/>
+    </row>
+    <row r="194" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A194" s="10"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="6"/>
+    </row>
+    <row r="195" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A195" s="10"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="6"/>
+    </row>
+    <row r="196" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A196" s="10"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="6"/>
+    </row>
+    <row r="197" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A197" s="10"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="6"/>
+    </row>
+    <row r="198" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A198" s="10"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="6"/>
+    </row>
+    <row r="199" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A199" s="10"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="6"/>
+    </row>
+    <row r="200" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A200" s="10"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="6"/>
+    </row>
+    <row r="201" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A201" s="10"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="6"/>
+    </row>
+    <row r="202" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A202" s="10"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="6"/>
+    </row>
+    <row r="203" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A203" s="10"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="6"/>
+    </row>
+    <row r="204" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A204" s="10"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="6"/>
+    </row>
+    <row r="205" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A205" s="10"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="6"/>
+    </row>
+    <row r="206" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A206" s="10"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="6"/>
+    </row>
+    <row r="207" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A207" s="10"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="6"/>
+    </row>
+    <row r="208" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A208" s="10"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="6"/>
+    </row>
+    <row r="209" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A209" s="10"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="6"/>
+    </row>
+    <row r="210" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A210" s="10"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="6"/>
+    </row>
+    <row r="211" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A211" s="10"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="6"/>
+    </row>
+    <row r="212" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A212" s="10"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="6"/>
+    </row>
+    <row r="213" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A213" s="10"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="6"/>
+    </row>
+    <row r="214" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A214" s="10"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="6"/>
+    </row>
+    <row r="215" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A215" s="10"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="6"/>
+    </row>
+    <row r="216" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A216" s="10"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="6"/>
+    </row>
+    <row r="217" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A217" s="10"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="6"/>
+    </row>
+    <row r="218" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A218" s="10"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="6"/>
+    </row>
+    <row r="219" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A219" s="10"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="6"/>
+    </row>
+    <row r="220" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A220" s="10"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="6"/>
+    </row>
+    <row r="221" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A221" s="10"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="6"/>
+    </row>
+    <row r="222" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A222" s="10"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="6"/>
+    </row>
+    <row r="223" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A223" s="10"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="6"/>
+    </row>
+    <row r="224" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A224" s="10"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="6"/>
+    </row>
+    <row r="225" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A225" s="10"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="6"/>
+    </row>
+    <row r="226" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A226" s="10"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="6"/>
+    </row>
+    <row r="227" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A227" s="10"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="6"/>
+    </row>
+    <row r="228" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A228" s="10"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="6"/>
+    </row>
+    <row r="229" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A229" s="10"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="6"/>
+    </row>
+    <row r="230" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A230" s="10"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="6"/>
+    </row>
+    <row r="231" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A231" s="10"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="6"/>
+    </row>
+    <row r="232" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A232" s="10"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="6"/>
+    </row>
+    <row r="233" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A233" s="10"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="6"/>
+    </row>
+    <row r="234" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A234" s="10"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="6"/>
+    </row>
+    <row r="235" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A235" s="10"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="6"/>
+    </row>
+    <row r="236" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A236" s="10"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="6"/>
+    </row>
+    <row r="237" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A237" s="10"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="6"/>
+    </row>
+    <row r="238" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A238" s="10"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="6"/>
+    </row>
+    <row r="239" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A239" s="10"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="6"/>
+    </row>
+    <row r="240" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A240" s="10"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="6"/>
+    </row>
+    <row r="241" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A241" s="10"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="6"/>
+    </row>
+    <row r="242" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A242" s="10"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="6"/>
+    </row>
+    <row r="243" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A243" s="10"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="6"/>
+    </row>
+    <row r="244" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A244" s="10"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="6"/>
+    </row>
+    <row r="245" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A245" s="10"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="6"/>
+    </row>
+    <row r="246" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A246" s="10"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="6"/>
+    </row>
+    <row r="247" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A247" s="10"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="6"/>
+    </row>
+    <row r="248" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A248" s="10"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="6"/>
+    </row>
+    <row r="249" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A249" s="10"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="6"/>
+    </row>
+    <row r="250" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A250" s="10"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="6"/>
+    </row>
+    <row r="251" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A251" s="10"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="6"/>
+    </row>
+    <row r="252" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A252" s="10"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="6"/>
+    </row>
+    <row r="253" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A253" s="10"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="6"/>
+    </row>
+    <row r="254" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A254" s="10"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="6"/>
+    </row>
+    <row r="255" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A255" s="10"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="6"/>
+    </row>
+    <row r="256" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A256" s="10"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="6"/>
+    </row>
+    <row r="257" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A257" s="10"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="6"/>
+    </row>
+    <row r="258" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A258" s="10"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="6"/>
+    </row>
+    <row r="259" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A259" s="10"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="6"/>
+    </row>
+    <row r="260" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A260" s="10"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="6"/>
+    </row>
+    <row r="261" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A261" s="10"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="6"/>
+    </row>
+    <row r="262" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A262" s="10"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="6"/>
+    </row>
+    <row r="263" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A263" s="10"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="6"/>
+    </row>
+    <row r="264" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A264" s="10"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="6"/>
+    </row>
+    <row r="265" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A265" s="10"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="6"/>
+    </row>
+    <row r="266" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A266" s="10"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
+      <c r="D266" s="6"/>
+    </row>
+    <row r="267" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A267" s="10"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+      <c r="D267" s="6"/>
+    </row>
+    <row r="268" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A268" s="10"/>
+      <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
+      <c r="D268" s="6"/>
+    </row>
+    <row r="269" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A269" s="10"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
+      <c r="D269" s="6"/>
+    </row>
+    <row r="270" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A270" s="10"/>
+      <c r="B270" s="3"/>
+      <c r="C270" s="3"/>
+      <c r="D270" s="6"/>
+    </row>
+    <row r="271" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A271" s="10"/>
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="6"/>
+    </row>
+    <row r="272" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A272" s="10"/>
+      <c r="B272" s="3"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="6"/>
+    </row>
+    <row r="273" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A273" s="10"/>
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="6"/>
+    </row>
+    <row r="274" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A274" s="10"/>
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
+      <c r="D274" s="6"/>
+    </row>
+    <row r="275" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A275" s="10"/>
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
+      <c r="D275" s="6"/>
+    </row>
+    <row r="276" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A276" s="10"/>
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
+      <c r="D276" s="6"/>
+    </row>
+    <row r="277" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A277" s="10"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+      <c r="D277" s="6"/>
+    </row>
+    <row r="278" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A278" s="10"/>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+      <c r="D278" s="6"/>
+    </row>
+    <row r="279" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A279" s="10"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="6"/>
+    </row>
+    <row r="280" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A280" s="10"/>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="6"/>
+    </row>
+    <row r="281" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A281" s="10"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
+      <c r="D281" s="6"/>
+    </row>
+    <row r="282" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A282" s="10"/>
+      <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
+      <c r="D282" s="6"/>
+    </row>
+    <row r="283" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A283" s="10"/>
+      <c r="B283" s="3"/>
+      <c r="C283" s="3"/>
+      <c r="D283" s="6"/>
+    </row>
+    <row r="284" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A284" s="10"/>
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="6"/>
+    </row>
+    <row r="285" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A285" s="10"/>
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
+      <c r="D285" s="6"/>
+    </row>
+    <row r="286" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A286" s="10"/>
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
+      <c r="D286" s="6"/>
+    </row>
+    <row r="287" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A287" s="10"/>
+      <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
+      <c r="D287" s="6"/>
+    </row>
+    <row r="288" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A288" s="10"/>
+      <c r="B288" s="3"/>
+      <c r="C288" s="3"/>
+      <c r="D288" s="6"/>
+    </row>
+    <row r="289" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A289" s="10"/>
+      <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
+      <c r="D289" s="6"/>
+    </row>
+    <row r="290" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A290" s="10"/>
+      <c r="B290" s="3"/>
+      <c r="C290" s="3"/>
+      <c r="D290" s="6"/>
+    </row>
+    <row r="291" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A291" s="10"/>
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
+      <c r="D291" s="6"/>
+    </row>
+    <row r="292" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A292" s="10"/>
+      <c r="B292" s="3"/>
+      <c r="C292" s="3"/>
+      <c r="D292" s="6"/>
+    </row>
+    <row r="293" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A293" s="10"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
+      <c r="D293" s="6"/>
+    </row>
+    <row r="294" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A294" s="10"/>
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
+      <c r="D294" s="6"/>
+    </row>
+    <row r="295" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A295" s="10"/>
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+      <c r="D295" s="6"/>
+    </row>
+    <row r="296" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A296" s="10"/>
+      <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
+      <c r="D296" s="6"/>
+    </row>
+    <row r="297" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="298" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="299" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="300" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="301" spans="1:4" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1156,12 +2879,295 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="81.5" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" customHeight="1" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="9">
+        <v>43250</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="9">
+        <v>43250</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="9">
+        <v>43250</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="6"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/更新记录.xlsx
+++ b/更新记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>路线定点活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>改正数据库topic、dynamic数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,119 +206,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>深大活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复活动商品编辑报错的问题输入数量5变1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建act_one数据表，并编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析业务逻辑，设计表结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成报名接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端午活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户协议接口及用户协议html页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐私协议接口及隐私协议html页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增版本验证接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按类删除优惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改删除单一优惠券的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按商家删除优惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有图片的上传路径头像、优惠券、动态、话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有图片的上传方法头像、优惠券、动态、话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除优惠券无限效期规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化安卓下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成优惠券图片删除功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增优惠券排序字段（order_by）,新增act_one_flag表中的排序字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增优惠券名称字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装dingo/api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构优惠券类、优惠券2大模块（数据库设计、模型、控制器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装注册jwt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>后台‘发现’首页做轮播图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深大活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复活动商品编辑报错的问题输入数量5变1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建act_one数据表，并编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析业务逻辑，设计表结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成报名接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端午活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户协议接口及用户协议html页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐私协议接口及隐私协议html页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增版本验证接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按类删除优惠券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改删除单一优惠券的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按商家删除优惠券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有图片的上传路径头像、优惠券、动态、话题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有图片的上传方法头像、优惠券、动态、话题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除优惠券无限效期规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化安卓下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成优惠券图片删除功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增优惠券排序字段（order_by）,新增act_one_flag表中的排序字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增优惠券名称字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装dingo/api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建坐标仓库数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建省市区表</t>
+    <t>完成优惠券类、优惠券2大模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计并创建坐标仓库数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计并创建省市区表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -330,15 +338,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重构优惠券类、优惠券2大模块（数据库设计、模型、控制器）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装注册jwt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7月24</t>
+    <t>完成深大模块和端午节模块迁移到2版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文件存储路径（管理员模块、商家模块）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1042,7 +1046,7 @@
         <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1056,7 +1060,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1066,7 +1070,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1076,7 +1080,7 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1088,7 +1092,7 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1098,7 +1102,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1107,10 +1111,10 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1119,10 +1123,10 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1131,10 +1135,10 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1143,10 +1147,10 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1155,10 +1159,10 @@
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1170,7 +1174,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1182,7 +1186,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1191,10 +1195,10 @@
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1203,10 +1207,10 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1215,10 +1219,10 @@
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1227,10 +1231,10 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1239,20 +1243,20 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1261,10 +1265,10 @@
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1273,14 +1277,16 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="10"/>
+      <c r="A41" s="10">
+        <v>43283</v>
+      </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
         <v>8</v>
@@ -1290,7 +1296,9 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="10"/>
+      <c r="A42" s="10">
+        <v>43284</v>
+      </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
         <v>9</v>
@@ -1300,43 +1308,51 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="10"/>
+      <c r="A43" s="10">
+        <v>43284</v>
+      </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="10"/>
+      <c r="A44" s="10">
+        <v>43285</v>
+      </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="10"/>
+      <c r="A45" s="10">
+        <v>43286</v>
+      </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="6" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="10"/>
+      <c r="A46" s="10">
+        <v>43287</v>
+      </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C46" s="3"/>
       <c r="D46" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="10"/>
+      <c r="A47" s="10">
+        <v>43287</v>
+      </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="6" t="s">
@@ -1344,7 +1360,9 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="10"/>
+      <c r="A48" s="10">
+        <v>43287</v>
+      </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="6" t="s">
@@ -1353,7 +1371,7 @@
     </row>
     <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="10">
-        <v>43285</v>
+        <v>43290</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1362,98 +1380,114 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="10"/>
+      <c r="A50" s="10">
+        <v>43292</v>
+      </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D50" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="10"/>
+      <c r="A51" s="10">
+        <v>43293</v>
+      </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="10">
-        <v>43292</v>
+        <v>43294</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="10"/>
+      <c r="A53" s="10">
+        <v>43297</v>
+      </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="10"/>
+      <c r="A54" s="10">
+        <v>43301</v>
+      </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="10"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="10"/>
+      <c r="A56" s="10">
+        <v>43307</v>
+      </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="10" t="s">
-        <v>80</v>
+      <c r="A57" s="10">
+        <v>43308</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="10"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="10"/>
+      <c r="A59" s="10">
+        <v>43327</v>
+      </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="10"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="10"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="10"/>
@@ -2865,11 +2899,17 @@
       <c r="C296" s="3"/>
       <c r="D296" s="6"/>
     </row>
-    <row r="297" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="297" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A297" s="10"/>
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+      <c r="D297" s="6"/>
+    </row>
     <row r="298" spans="1:4" ht="20.100000000000001" customHeight="1"/>
     <row r="299" spans="1:4" ht="20.100000000000001" customHeight="1"/>
     <row r="300" spans="1:4" ht="20.100000000000001" customHeight="1"/>
     <row r="301" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="302" spans="1:4" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2914,7 +2954,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>31</v>
@@ -2927,7 +2967,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -2942,7 +2982,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">

--- a/更新记录.xlsx
+++ b/更新记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,7 +342,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改文件存储路径（管理员模块、商家模块）</t>
+    <t>重写图片存储路径包括：管理员，用户，优惠券，店铺，新增系统图片文件夹sys_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成32个数据库重置，完成36000条数据的重新录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复记住登陆功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请微信服务号，开通微信红包功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复超级管理员账号太短的问题，修复超级管理员可以被删除的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复超级管理员能被一般用户修改或删除的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1493,31 +1513,41 @@
       <c r="A62" s="10"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="10"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="6"/>
+      <c r="D63" s="6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="10"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="10"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="10"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="6"/>
+      <c r="D66" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="10"/>

--- a/更新记录.xlsx
+++ b/更新记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +363,14 @@
   </si>
   <si>
     <t>修复超级管理员能被一般用户修改或删除的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复活动商品、积分商品不能为0的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复话题页加载不能显示的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +803,7 @@
   <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1553,13 +1561,17 @@
       <c r="A67" s="10"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="10"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="6"/>
+      <c r="D68" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="10"/>

--- a/更新记录.xlsx
+++ b/更新记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,35 +342,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完成32个数据库重置，完成36000条数据的重新录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复记住登陆功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请微信服务号，开通微信红包功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复超级管理员账号太短的问题，修复超级管理员可以被删除的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复超级管理员能被一般用户修改或删除的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复活动商品、积分商品不能为0的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复话题页加载不能显示的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>重写图片存储路径包括：管理员，用户，优惠券，店铺，新增系统图片文件夹sys_img</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成32个数据库重置，完成36000条数据的重新录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复记住登陆功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请微信服务号，开通微信红包功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复超级管理员账号太短的问题，修复超级管理员可以被删除的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复超级管理员能被一般用户修改或删除的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复活动商品、积分商品不能为0的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复话题页加载不能显示的问题</t>
+    <t>文件夹切割能让查找效率更高,删除原图片模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1514,7 +1518,7 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1522,7 +1526,7 @@
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1530,7 +1534,7 @@
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1538,7 +1542,7 @@
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1546,7 +1550,7 @@
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1554,7 +1558,7 @@
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1562,7 +1566,7 @@
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1570,14 +1574,16 @@
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="10"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="6"/>
+      <c r="D69" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="10"/>
@@ -2947,11 +2953,17 @@
       <c r="C297" s="3"/>
       <c r="D297" s="6"/>
     </row>
-    <row r="298" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="298" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A298" s="10"/>
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
+      <c r="D298" s="6"/>
+    </row>
     <row r="299" spans="1:4" ht="20.100000000000001" customHeight="1"/>
     <row r="300" spans="1:4" ht="20.100000000000001" customHeight="1"/>
     <row r="301" spans="1:4" ht="20.100000000000001" customHeight="1"/>
     <row r="302" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="303" spans="1:4" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
